--- a/database/raw_data/realtion_db/좋은제약_실적자료_정예준_2.xlsx
+++ b/database/raw_data/realtion_db/좋은제약_실적자료_정예준_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kdy\Projects\Project_SK_5\Storage_docs\raw_data_enhanced\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kdy\Projects\Narutalk_V003\beta_v0031\database\raw_data\realtion_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EFE5A6-309E-469D-9E90-AF0BD33CEF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE13D8F0-9965-4462-B930-6FC991825332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="26880" windowWidth="29040" windowHeight="15720" xr2:uid="{B105D650-3DC8-402F-9CBB-1281F9D828A4}"/>
+    <workbookView xWindow="2580" yWindow="10290" windowWidth="21600" windowHeight="12670" xr2:uid="{B105D650-3DC8-402F-9CBB-1281F9D828A4}"/>
   </bookViews>
   <sheets>
     <sheet name="좋은제약_실적자료_정예준_수정본" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="107">
   <si>
     <t>담당자</t>
-  </si>
-  <si>
-    <t>ID</t>
   </si>
   <si>
     <t>품목</t>
@@ -357,6 +354,9 @@
   </si>
   <si>
     <t>청코끼리이비인후과</t>
+  </si>
+  <si>
+    <t>거래처ID</t>
   </si>
 </sst>
 </file>
@@ -1334,7 +1334,7 @@
   <dimension ref="A1:AB215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1346,16 +1346,16 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
       <c r="E1">
         <v>202212</v>
@@ -1432,16 +1432,16 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
       </c>
       <c r="E2">
         <v>55473</v>
@@ -1518,16 +1518,16 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1604,16 +1604,16 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>51892</v>
@@ -1690,16 +1690,16 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>22834</v>
@@ -1776,16 +1776,16 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>73139</v>
@@ -1862,16 +1862,16 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>1454683</v>
@@ -1948,16 +1948,16 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>1728</v>
@@ -2034,16 +2034,16 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>2932</v>
@@ -2120,16 +2120,16 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2206,16 +2206,16 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11">
         <v>3761</v>
@@ -2292,16 +2292,16 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>2627</v>
@@ -2378,16 +2378,16 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>12627</v>
@@ -2464,16 +2464,16 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>673</v>
@@ -2550,16 +2550,16 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2636,16 +2636,16 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2722,16 +2722,16 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E17">
         <v>61936</v>
@@ -2808,16 +2808,16 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2894,16 +2894,16 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2980,16 +2980,16 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20">
         <v>14519</v>
@@ -3066,16 +3066,16 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <v>529180</v>
@@ -3152,16 +3152,16 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>45016</v>
@@ -3238,16 +3238,16 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>608</v>
@@ -3324,16 +3324,16 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>267</v>
@@ -3410,16 +3410,16 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>7328</v>
@@ -3496,16 +3496,16 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>5071</v>
@@ -3582,16 +3582,16 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E27">
         <v>7106</v>
@@ -3668,16 +3668,16 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E28">
         <v>32750</v>
@@ -3754,16 +3754,16 @@
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -3840,16 +3840,16 @@
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30">
         <v>9924</v>
@@ -3926,16 +3926,16 @@
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31">
         <v>537494</v>
@@ -4012,16 +4012,16 @@
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E32">
         <v>190428</v>
@@ -4098,16 +4098,16 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E33">
         <v>318409</v>
@@ -4184,16 +4184,16 @@
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E34">
         <v>72527</v>
@@ -4270,16 +4270,16 @@
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E35">
         <v>5220</v>
@@ -4356,16 +4356,16 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E36">
         <v>8881</v>
@@ -4442,16 +4442,16 @@
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E37">
         <v>10502</v>
@@ -4528,16 +4528,16 @@
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E38">
         <v>10359</v>
@@ -4614,16 +4614,16 @@
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -4700,16 +4700,16 @@
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E40">
         <v>1181</v>
@@ -4786,16 +4786,16 @@
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E41">
         <v>17713</v>
@@ -4872,16 +4872,16 @@
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E42">
         <v>38699</v>
@@ -4958,16 +4958,16 @@
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E43">
         <v>13891</v>
@@ -5044,16 +5044,16 @@
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -5130,16 +5130,16 @@
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -5216,16 +5216,16 @@
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E46">
         <v>8359</v>
@@ -5302,16 +5302,16 @@
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E47">
         <v>4795</v>
@@ -5388,16 +5388,16 @@
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E48">
         <v>879</v>
@@ -5474,16 +5474,16 @@
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E49">
         <v>91079</v>
@@ -5560,16 +5560,16 @@
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
         <v>105</v>
       </c>
-      <c r="B50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" t="s">
-        <v>106</v>
-      </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E50">
         <v>4549</v>
@@ -5646,16 +5646,16 @@
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" t="s">
         <v>3</v>
-      </c>
-      <c r="C51" t="s">
-        <v>82</v>
-      </c>
-      <c r="D51" t="s">
-        <v>4</v>
       </c>
       <c r="E51">
         <v>6344</v>
@@ -5732,16 +5732,16 @@
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E52">
         <v>2863753</v>
@@ -5818,16 +5818,16 @@
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E53">
         <v>74073</v>
@@ -5904,16 +5904,16 @@
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E54">
         <v>190665</v>
@@ -5990,16 +5990,16 @@
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E55">
         <v>32751</v>
@@ -6076,16 +6076,16 @@
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E56">
         <v>13242</v>
@@ -6162,16 +6162,16 @@
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E57">
         <v>13043</v>
@@ -6248,16 +6248,16 @@
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E58">
         <v>189851</v>
@@ -6334,16 +6334,16 @@
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E59">
         <v>32778</v>
@@ -6420,16 +6420,16 @@
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B60" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E60">
         <v>4242</v>
@@ -6506,16 +6506,16 @@
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E61">
         <v>32821</v>
@@ -6592,16 +6592,16 @@
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E62">
         <v>85269</v>
@@ -6678,16 +6678,16 @@
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B63" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>83</v>
+      </c>
+      <c r="D63" t="s">
         <v>3</v>
-      </c>
-      <c r="C63" t="s">
-        <v>84</v>
-      </c>
-      <c r="D63" t="s">
-        <v>4</v>
       </c>
       <c r="E63">
         <v>228998</v>
@@ -6764,16 +6764,16 @@
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -6850,16 +6850,16 @@
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B65" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E65">
         <v>80434</v>
@@ -6936,16 +6936,16 @@
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -7022,16 +7022,16 @@
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E67">
         <v>728</v>
@@ -7108,16 +7108,16 @@
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -7194,16 +7194,16 @@
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B69" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E69">
         <v>25332</v>
@@ -7280,16 +7280,16 @@
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B70" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -7366,16 +7366,16 @@
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B71" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -7452,16 +7452,16 @@
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B72" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E72">
         <v>116046</v>
@@ -7538,16 +7538,16 @@
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B73" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E73">
         <v>2152</v>
@@ -7624,16 +7624,16 @@
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -7710,16 +7710,16 @@
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -7796,16 +7796,16 @@
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B76" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C76" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E76">
         <v>11958</v>
@@ -7882,16 +7882,16 @@
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C77" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -7968,16 +7968,16 @@
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -8054,16 +8054,16 @@
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B79" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E79">
         <v>728649</v>
@@ -8140,16 +8140,16 @@
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" t="s">
         <v>3</v>
-      </c>
-      <c r="C80" t="s">
-        <v>85</v>
-      </c>
-      <c r="D80" t="s">
-        <v>4</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -8226,16 +8226,16 @@
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B81" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C81" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D81" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E81">
         <v>5597</v>
@@ -8312,16 +8312,16 @@
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B82" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E82">
         <v>364</v>
@@ -8398,16 +8398,16 @@
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B83" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -8484,16 +8484,16 @@
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B84" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E84">
         <v>105408</v>
@@ -8570,16 +8570,16 @@
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B85" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -8656,16 +8656,16 @@
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B86" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C86" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E86">
         <v>456012</v>
@@ -8742,16 +8742,16 @@
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B87" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E87">
         <v>24742</v>
@@ -8828,16 +8828,16 @@
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B88" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D88" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E88">
         <v>18607</v>
@@ -8914,16 +8914,16 @@
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B89" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C89" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D89" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E89">
         <v>4562</v>
@@ -9000,16 +9000,16 @@
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B90" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C90" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D90" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E90">
         <v>17383</v>
@@ -9086,16 +9086,16 @@
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B91" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C91" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E91">
         <v>15541</v>
@@ -9172,16 +9172,16 @@
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B92" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C92" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E92">
         <v>891</v>
@@ -9258,16 +9258,16 @@
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B93" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C93" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E93">
         <v>5313</v>
@@ -9344,16 +9344,16 @@
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B94" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C94" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E94">
         <v>12950</v>
@@ -9430,16 +9430,16 @@
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B95" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C95" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -9516,16 +9516,16 @@
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C96" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E96">
         <v>159660</v>
@@ -9602,16 +9602,16 @@
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B97" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C97" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D97" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -9688,16 +9688,16 @@
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C98" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E98">
         <v>17685</v>
@@ -9774,16 +9774,16 @@
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B99" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C99" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D99" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -9860,16 +9860,16 @@
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B100" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C100" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D100" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E100">
         <v>688981</v>
@@ -9946,16 +9946,16 @@
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D101" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E101">
         <v>323386</v>
@@ -10032,16 +10032,16 @@
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C102" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D102" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E102">
         <v>1163985</v>
@@ -10118,16 +10118,16 @@
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C103" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D103" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E103">
         <v>24790</v>
@@ -10204,16 +10204,16 @@
     </row>
     <row r="104" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C104" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E104">
         <v>5073</v>
@@ -10290,16 +10290,16 @@
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C105" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D105" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E105">
         <v>5224</v>
@@ -10376,16 +10376,16 @@
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C106" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D106" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E106">
         <v>9959</v>
@@ -10462,16 +10462,16 @@
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C107" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D107" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E107">
         <v>1515549</v>
@@ -10548,16 +10548,16 @@
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B108" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C108" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E108">
         <v>493767</v>
@@ -10634,16 +10634,16 @@
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B109" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C109" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E109">
         <v>580287</v>
@@ -10720,16 +10720,16 @@
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B110" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C110" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D110" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E110">
         <v>241129</v>
@@ -10806,16 +10806,16 @@
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B111" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C111" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D111" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E111">
         <v>614321</v>
@@ -10892,16 +10892,16 @@
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B112" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C112" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D112" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E112">
         <v>2143986</v>
@@ -10978,16 +10978,16 @@
     </row>
     <row r="113" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B113" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C113" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D113" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E113">
         <v>21195</v>
@@ -11064,16 +11064,16 @@
     </row>
     <row r="114" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B114" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C114" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D114" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -11150,16 +11150,16 @@
     </row>
     <row r="115" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B115" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C115" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D115" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E115">
         <v>12280</v>
@@ -11236,16 +11236,16 @@
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B116" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C116" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D116" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E116">
         <v>628870</v>
@@ -11322,16 +11322,16 @@
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B117" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C117" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D117" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E117">
         <v>434518</v>
@@ -11408,16 +11408,16 @@
     </row>
     <row r="118" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B118" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C118" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D118" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E118">
         <v>338001</v>
@@ -11494,16 +11494,16 @@
     </row>
     <row r="119" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B119" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C119" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D119" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E119">
         <v>107193</v>
@@ -11580,16 +11580,16 @@
     </row>
     <row r="120" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B120" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C120" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D120" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -11666,16 +11666,16 @@
     </row>
     <row r="121" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B121" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C121" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D121" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E121">
         <v>231791</v>
@@ -11752,16 +11752,16 @@
     </row>
     <row r="122" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B122" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C122" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D122" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E122">
         <v>272245</v>
@@ -11838,16 +11838,16 @@
     </row>
     <row r="123" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B123" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D123" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E123">
         <v>403501</v>
@@ -11924,16 +11924,16 @@
     </row>
     <row r="124" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B124" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C124" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D124" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E124">
         <v>1614</v>
@@ -12010,16 +12010,16 @@
     </row>
     <row r="125" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B125" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C125" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D125" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E125">
         <v>30256</v>
@@ -12096,16 +12096,16 @@
     </row>
     <row r="126" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B126" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C126" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D126" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E126">
         <v>214765</v>
@@ -12182,16 +12182,16 @@
     </row>
     <row r="127" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B127" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D127" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E127">
         <v>434881</v>
@@ -12268,16 +12268,16 @@
     </row>
     <row r="128" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B128" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C128" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D128" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E128">
         <v>141075</v>
@@ -12354,16 +12354,16 @@
     </row>
     <row r="129" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B129" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C129" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D129" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E129">
         <v>35857</v>
@@ -12440,16 +12440,16 @@
     </row>
     <row r="130" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B130" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C130" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E130">
         <v>141279</v>
@@ -12526,16 +12526,16 @@
     </row>
     <row r="131" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B131" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C131" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D131" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E131">
         <v>350652</v>
@@ -12612,16 +12612,16 @@
     </row>
     <row r="132" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B132" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C132" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D132" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E132">
         <v>232197</v>
@@ -12698,16 +12698,16 @@
     </row>
     <row r="133" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B133" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C133" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D133" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E133">
         <v>822050</v>
@@ -12784,16 +12784,16 @@
     </row>
     <row r="134" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B134" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C134" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D134" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E134">
         <v>126488</v>
@@ -12870,16 +12870,16 @@
     </row>
     <row r="135" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B135" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C135" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D135" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E135">
         <v>180601</v>
@@ -12956,16 +12956,16 @@
     </row>
     <row r="136" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B136" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C136" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D136" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -13042,16 +13042,16 @@
     </row>
     <row r="137" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B137" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C137" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D137" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -13128,16 +13128,16 @@
     </row>
     <row r="138" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B138" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C138" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D138" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -13214,16 +13214,16 @@
     </row>
     <row r="139" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B139" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C139" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D139" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -13300,16 +13300,16 @@
     </row>
     <row r="140" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B140" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C140" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D140" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E140">
         <v>1040261</v>
@@ -13386,16 +13386,16 @@
     </row>
     <row r="141" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B141" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C141" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E141">
         <v>168814</v>
@@ -13472,16 +13472,16 @@
     </row>
     <row r="142" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B142" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C142" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -13558,16 +13558,16 @@
     </row>
     <row r="143" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B143" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C143" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D143" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E143">
         <v>134365</v>
@@ -13644,16 +13644,16 @@
     </row>
     <row r="144" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B144" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C144" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D144" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -13730,16 +13730,16 @@
     </row>
     <row r="145" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B145" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C145" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D145" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E145">
         <v>413740</v>
@@ -13816,16 +13816,16 @@
     </row>
     <row r="146" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B146" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C146" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D146" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E146">
         <v>2041</v>
@@ -13902,16 +13902,16 @@
     </row>
     <row r="147" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B147" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147" t="s">
+        <v>92</v>
+      </c>
+      <c r="D147" t="s">
         <v>3</v>
-      </c>
-      <c r="C147" t="s">
-        <v>93</v>
-      </c>
-      <c r="D147" t="s">
-        <v>4</v>
       </c>
       <c r="E147">
         <v>265385</v>
@@ -13988,16 +13988,16 @@
     </row>
     <row r="148" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B148" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C148" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D148" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E148">
         <v>377015</v>
@@ -14074,16 +14074,16 @@
     </row>
     <row r="149" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B149" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C149" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D149" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E149">
         <v>3753</v>
@@ -14160,16 +14160,16 @@
     </row>
     <row r="150" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B150" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C150" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D150" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E150">
         <v>29623</v>
@@ -14246,16 +14246,16 @@
     </row>
     <row r="151" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B151" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C151" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E151">
         <v>4363</v>
@@ -14332,16 +14332,16 @@
     </row>
     <row r="152" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B152" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C152" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D152" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E152">
         <v>267591</v>
@@ -14418,16 +14418,16 @@
     </row>
     <row r="153" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B153" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C153" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E153">
         <v>98094</v>
@@ -14504,16 +14504,16 @@
     </row>
     <row r="154" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B154" t="s">
+        <v>2</v>
+      </c>
+      <c r="C154" t="s">
+        <v>94</v>
+      </c>
+      <c r="D154" t="s">
         <v>3</v>
-      </c>
-      <c r="C154" t="s">
-        <v>95</v>
-      </c>
-      <c r="D154" t="s">
-        <v>4</v>
       </c>
       <c r="E154">
         <v>77899</v>
@@ -14590,16 +14590,16 @@
     </row>
     <row r="155" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B155" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C155" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D155" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E155">
         <v>48205</v>
@@ -14676,16 +14676,16 @@
     </row>
     <row r="156" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B156" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C156" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D156" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E156">
         <v>10530</v>
@@ -14762,16 +14762,16 @@
     </row>
     <row r="157" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B157" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C157" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E157">
         <v>1192</v>
@@ -14848,16 +14848,16 @@
     </row>
     <row r="158" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B158" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C158" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D158" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E158">
         <v>4697</v>
@@ -14934,16 +14934,16 @@
     </row>
     <row r="159" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B159" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C159" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D159" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E159">
         <v>13364</v>
@@ -15020,16 +15020,16 @@
     </row>
     <row r="160" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B160" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C160" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D160" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E160">
         <v>18979</v>
@@ -15106,16 +15106,16 @@
     </row>
     <row r="161" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B161" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C161" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D161" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E161">
         <v>1544</v>
@@ -15192,16 +15192,16 @@
     </row>
     <row r="162" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B162" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C162" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D162" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E162">
         <v>482671</v>
@@ -15278,16 +15278,16 @@
     </row>
     <row r="163" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B163" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C163" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E163">
         <v>38593</v>
@@ -15364,16 +15364,16 @@
     </row>
     <row r="164" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B164" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C164" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D164" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -15450,16 +15450,16 @@
     </row>
     <row r="165" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B165" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C165" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D165" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E165">
         <v>2686</v>
@@ -15536,16 +15536,16 @@
     </row>
     <row r="166" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B166" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C166" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D166" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E166">
         <v>1402</v>
@@ -15622,16 +15622,16 @@
     </row>
     <row r="167" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B167" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C167" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D167" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E167">
         <v>4017</v>
@@ -15708,16 +15708,16 @@
     </row>
     <row r="168" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B168" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C168" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D168" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E168">
         <v>92205</v>
@@ -15794,16 +15794,16 @@
     </row>
     <row r="169" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B169" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C169" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D169" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E169">
         <v>15155</v>
@@ -15880,16 +15880,16 @@
     </row>
     <row r="170" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B170" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C170" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D170" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -15966,16 +15966,16 @@
     </row>
     <row r="171" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B171" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C171" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D171" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -16052,16 +16052,16 @@
     </row>
     <row r="172" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B172" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C172" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D172" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E172">
         <v>7191</v>
@@ -16138,16 +16138,16 @@
     </row>
     <row r="173" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B173" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C173" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D173" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E173">
         <v>478401</v>
@@ -16224,16 +16224,16 @@
     </row>
     <row r="174" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B174" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C174" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D174" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E174">
         <v>233027</v>
@@ -16310,16 +16310,16 @@
     </row>
     <row r="175" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B175" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C175" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D175" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E175">
         <v>59460</v>
@@ -16396,16 +16396,16 @@
     </row>
     <row r="176" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B176" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C176" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D176" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E176">
         <v>286271</v>
@@ -16482,16 +16482,16 @@
     </row>
     <row r="177" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B177" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C177" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D177" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E177">
         <v>122544</v>
@@ -16568,16 +16568,16 @@
     </row>
     <row r="178" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B178" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C178" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D178" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E178">
         <v>250641</v>
@@ -16654,16 +16654,16 @@
     </row>
     <row r="179" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B179" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C179" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E179">
         <v>12944</v>
@@ -16740,16 +16740,16 @@
     </row>
     <row r="180" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B180" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C180" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D180" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E180">
         <v>66511</v>
@@ -16826,16 +16826,16 @@
     </row>
     <row r="181" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B181" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C181" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D181" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E181">
         <v>142984</v>
@@ -16912,16 +16912,16 @@
     </row>
     <row r="182" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B182" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C182" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D182" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E182">
         <v>285667</v>
@@ -16998,16 +16998,16 @@
     </row>
     <row r="183" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B183" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C183" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D183" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E183">
         <v>35333</v>
@@ -17084,16 +17084,16 @@
     </row>
     <row r="184" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B184" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C184" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D184" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E184">
         <v>5847</v>
@@ -17170,16 +17170,16 @@
     </row>
     <row r="185" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B185" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C185" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D185" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E185">
         <v>1098</v>
@@ -17256,16 +17256,16 @@
     </row>
     <row r="186" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B186" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C186" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D186" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E186">
         <v>6637</v>
@@ -17342,16 +17342,16 @@
     </row>
     <row r="187" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B187" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C187" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D187" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E187">
         <v>267648</v>
@@ -17428,16 +17428,16 @@
     </row>
     <row r="188" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B188" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C188" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D188" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E188">
         <v>821328</v>
@@ -17514,16 +17514,16 @@
     </row>
     <row r="189" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B189" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C189" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D189" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -17600,16 +17600,16 @@
     </row>
     <row r="190" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B190" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C190" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D190" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E190">
         <v>20498</v>
@@ -17686,16 +17686,16 @@
     </row>
     <row r="191" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B191" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C191" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D191" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -17772,16 +17772,16 @@
     </row>
     <row r="192" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B192" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C192" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D192" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E192">
         <v>55064</v>
@@ -17858,16 +17858,16 @@
     </row>
     <row r="193" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B193" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C193" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D193" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E193">
         <v>1093195</v>
@@ -17944,16 +17944,16 @@
     </row>
     <row r="194" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B194" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C194" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D194" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E194">
         <v>16818</v>
@@ -18030,16 +18030,16 @@
     </row>
     <row r="195" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B195" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C195" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D195" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E195">
         <v>12669</v>
@@ -18116,16 +18116,16 @@
     </row>
     <row r="196" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B196" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C196" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D196" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -18202,16 +18202,16 @@
     </row>
     <row r="197" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B197" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C197" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D197" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -18288,16 +18288,16 @@
     </row>
     <row r="198" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B198" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C198" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D198" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E198">
         <v>3632</v>
@@ -18374,16 +18374,16 @@
     </row>
     <row r="199" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B199" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C199" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D199" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -18460,16 +18460,16 @@
     </row>
     <row r="200" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B200" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C200" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D200" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E200">
         <v>554</v>
@@ -18546,16 +18546,16 @@
     </row>
     <row r="201" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B201" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C201" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D201" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -18632,16 +18632,16 @@
     </row>
     <row r="202" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B202" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C202" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D202" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E202">
         <v>1276</v>
@@ -18718,16 +18718,16 @@
     </row>
     <row r="203" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B203" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C203" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D203" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -18804,16 +18804,16 @@
     </row>
     <row r="204" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B204" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C204" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D204" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E204">
         <v>0</v>
@@ -18890,16 +18890,16 @@
     </row>
     <row r="205" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B205" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C205" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D205" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E205">
         <v>39929</v>
@@ -18976,16 +18976,16 @@
     </row>
     <row r="206" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B206" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C206" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D206" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E206">
         <v>0</v>
@@ -19062,16 +19062,16 @@
     </row>
     <row r="207" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B207" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C207" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D207" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E207">
         <v>22309</v>
@@ -19148,16 +19148,16 @@
     </row>
     <row r="208" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B208" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C208" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D208" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E208">
         <v>2396</v>
@@ -19234,16 +19234,16 @@
     </row>
     <row r="209" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B209" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C209" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D209" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E209">
         <v>70658</v>
@@ -19320,16 +19320,16 @@
     </row>
     <row r="210" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A210" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B210" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C210" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D210" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E210">
         <v>9830</v>
@@ -19406,16 +19406,16 @@
     </row>
     <row r="211" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A211" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B211" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C211" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D211" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E211">
         <v>0</v>
@@ -19492,16 +19492,16 @@
     </row>
     <row r="212" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B212" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C212" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D212" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E212">
         <v>1099</v>
@@ -19578,16 +19578,16 @@
     </row>
     <row r="213" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A213" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B213" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C213" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D213" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E213">
         <v>822</v>
@@ -19664,16 +19664,16 @@
     </row>
     <row r="214" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B214" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C214" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D214" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E214">
         <v>7830</v>
@@ -19750,16 +19750,16 @@
     </row>
     <row r="215" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B215" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C215" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D215" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E215">
         <v>1443</v>
